--- a/data/HR1/A_KPC_35_1/A_KPC_35_1_2040.xlsx
+++ b/data/HR1/A_KPC_35_1/A_KPC_35_1_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_KPC_35_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E1191E-BE8B-4194-8300-47D9A85881AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03937C7B-4CE2-4FC4-9042-A82C3E31C11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12390" windowWidth="29040" windowHeight="17640" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40755" yWindow="-4320" windowWidth="17280" windowHeight="8970" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13647,7 +13647,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
